--- a/biology/Zoologie/Akodon/Akodon.xlsx
+++ b/biology/Zoologie/Akodon/Akodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris champêtres
-Le genre Akodon, regroupe un certain nombre d'espèces de souris parfois appelées souris champêtres (les anglo-saxons nomment souvent ces espèces : « grass mice and South American field mice »)[1],[2]. Ce sont de petits rongeurs de la famille des cricétidés. Ils vivent dans différentes régions d'Amérique du Sud.
+Le genre Akodon, regroupe un certain nombre d'espèces de souris parfois appelées souris champêtres (les anglo-saxons nomment souvent ces espèces : « grass mice and South American field mice »),. Ce sont de petits rongeurs de la famille des cricétidés. Ils vivent dans différentes régions d'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Références françaises issues de :
-planet-mammiferes.org (13 déc 2010)[3]
+planet-mammiferes.org (13 déc 2010)
 Références anglo-saxonnes issues de :
-University of Michigan Museum of Zoologie - Animal Diversity (13 déc 2010)[4]
-ITIS, the Integrated Taxonomic Information System[2]</t>
+University of Michigan Museum of Zoologie - Animal Diversity (13 déc 2010)
+ITIS, the Integrated Taxonomic Information System</t>
         </is>
       </c>
     </row>
